--- a/AutomaticResumeFilter/src/resources/subjectExperteHomePage.xlsx
+++ b/AutomaticResumeFilter/src/resources/subjectExperteHomePage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaharshavardhan\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65EA48F-A08F-4877-BA29-3EBABFA28B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CE0242-3915-4681-86C0-602E07DDE8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C743F79F-BCF7-4AF1-AACE-47A7B92FCE55}"/>
   </bookViews>
@@ -43,41 +43,47 @@
     <t>RTY</t>
   </si>
   <si>
-    <t>YTR</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>ytr</t>
-  </si>
-  <si>
     <t>plkjh</t>
   </si>
   <si>
     <t>kkk</t>
   </si>
   <si>
-    <t>sdet hiring</t>
-  </si>
-  <si>
     <t>sde</t>
   </si>
   <si>
     <t>Front End dev Hiring</t>
+  </si>
+  <si>
+    <t>RECURIMENT2</t>
+  </si>
+  <si>
+    <t>recuriment1</t>
+  </si>
+  <si>
+    <t>recuriment2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -422,10 +428,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -439,12 +448,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -458,52 +467,56 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AutomaticResumeFilter/src/resources/subjectExperteHomePage.xlsx
+++ b/AutomaticResumeFilter/src/resources/subjectExperteHomePage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CE0242-3915-4681-86C0-602E07DDE8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B402C7-E4F8-41CB-8B3D-04120D0B2A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C743F79F-BCF7-4AF1-AACE-47A7B92FCE55}"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>recuriment1</t>
   </si>
   <si>
-    <t>recuriment2</t>
+    <t>recuriment3</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
